--- a/ig/ch-lab-report/ValueSet-ch-lab-report-lab-study-types.xlsx
+++ b/ig/ch-lab-report/ValueSet-ch-lab-report-lab-study-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T14:56:25+01:00</t>
+    <t>2023-12-28T12:16:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
